--- a/GSO_Client/Assets/StreamingAssets/master_quest_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_quest_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="60">
   <si>
     <t xml:space="preserve">quest_id</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t xml:space="preserve">40002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_S002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_S006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_S003</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>50</v>
@@ -421,7 +433,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>51</v>
@@ -450,7 +462,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>52</v>
@@ -479,7 +491,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>53</v>

--- a/GSO_Client/Assets/StreamingAssets/master_quest_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_quest_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="60">
   <si>
     <t xml:space="preserve">quest_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_quest_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_quest_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="60">
   <si>
     <t xml:space="preserve">quest_id</t>
   </si>
